--- a/marco-qametric-testdata.xlsx
+++ b/marco-qametric-testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\doktora\3.tik\datasets\new\new\new\lastdataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\doktora\mythesis\qametrichub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA06707B-1E96-43F5-BA9C-CCA758E363EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D6D306-556C-4829-8851-B17316384373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="21585" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="365">
   <si>
     <t>contexts</t>
   </si>
@@ -1099,6 +1099,27 @@
   </si>
   <si>
     <t>score_mean</t>
+  </si>
+  <si>
+    <t>Closely related fields in theoretical computer science are analysis of algorithms and computability theory. A key distinction between analysis of algorithms and computational complexity theory is that the former is devoted to analyzing the amount of resources needed by a particular algorithm to solve a problem, whereas the latter asks a more general question about all possible algorithms that could be used to solve the same problem. More precisely, it tries to classify problems that can or cannot be solved with appropriately restricted resources. In turn, imposing restrictions on the available resources is what distinguishes computational complexity from computability theory: the latter theory asks what kind of problems can, in principle, be solved algorithmically.</t>
+  </si>
+  <si>
+    <t>What two fields of theoretical computer science closely mirror computational complexity theory?</t>
+  </si>
+  <si>
+    <t>analysis of algorithms and computability theory</t>
+  </si>
+  <si>
+    <t>analysis of algorithms</t>
+  </si>
+  <si>
+    <t>intractable problems</t>
+  </si>
+  <si>
+    <t>Problems capable of theoretical solutions but consuming unreasonable time in practical application are known as what?</t>
+  </si>
+  <si>
+    <t>Problems that can be solved in theory (e.g., given large but finite time), but which in practice take too long for their solutions to be useful, are known as intractable problems. In complexity theory, problems that lack polynomial-time solutions are considered to be intractable for more than the smallest inputs. In fact, the Cobham–Edmonds thesis states that only those problems that can be solved in polynomial time can be feasibly computed on some computational device. Problems that are known to be intractable in this sense include those that are EXPTIME-hard. If NP is not the same as P, then the NP-complete problems are also intractable in this sense. To see why exponential-time algorithms might be unusable in practice, consider a program that makes 2n operations before halting. For small n, say 100, and assuming for the sake of example that the computer does 1012 operations each second, the program would run for about 4 × 1010 years, which is the same order of magnitude as the age of the universe. Even with a much faster computer, the program would only be useful for very small instances and in that sense the intractability of a problem is somewhat independent of technological progress. Nevertheless, a polynomial time algorithm is not always practical. If its running time is, say, n15, it is unreasonable to consider it efficient and it is still useless except on small instances.</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1190,68 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1467,10 +1549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD99"/>
+  <dimension ref="A1:AD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10583,9 +10665,205 @@
         <v>0.69651814999623618</v>
       </c>
     </row>
+    <row r="100" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>358</v>
+      </c>
+      <c r="B100" t="s">
+        <v>359</v>
+      </c>
+      <c r="C100" t="s">
+        <v>360</v>
+      </c>
+      <c r="D100" t="s">
+        <v>361</v>
+      </c>
+      <c r="E100" t="s">
+        <v>301</v>
+      </c>
+      <c r="F100" t="s">
+        <v>301</v>
+      </c>
+      <c r="G100" t="s">
+        <v>301</v>
+      </c>
+      <c r="H100" t="s">
+        <v>301</v>
+      </c>
+      <c r="I100" t="s">
+        <v>301</v>
+      </c>
+      <c r="J100" t="s">
+        <v>301</v>
+      </c>
+      <c r="K100" t="s">
+        <v>301</v>
+      </c>
+      <c r="L100" t="s">
+        <v>301</v>
+      </c>
+      <c r="M100">
+        <v>5</v>
+      </c>
+      <c r="N100">
+        <v>5</v>
+      </c>
+      <c r="O100">
+        <v>5</v>
+      </c>
+      <c r="P100">
+        <v>5</v>
+      </c>
+      <c r="Q100">
+        <v>5</v>
+      </c>
+      <c r="R100">
+        <v>5</v>
+      </c>
+      <c r="S100">
+        <v>5</v>
+      </c>
+      <c r="T100">
+        <v>5</v>
+      </c>
+      <c r="U100">
+        <v>5</v>
+      </c>
+      <c r="V100">
+        <v>1</v>
+      </c>
+      <c r="W100">
+        <v>1</v>
+      </c>
+      <c r="X100">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Y100">
+        <v>4.493053873107152E-78</v>
+      </c>
+      <c r="Z100">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AA100">
+        <v>0.5166217777976182</v>
+      </c>
+      <c r="AB100">
+        <v>0.92279467704335305</v>
+      </c>
+      <c r="AC100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>364</v>
+      </c>
+      <c r="B101" t="s">
+        <v>363</v>
+      </c>
+      <c r="C101" t="s">
+        <v>362</v>
+      </c>
+      <c r="D101" t="s">
+        <v>362</v>
+      </c>
+      <c r="E101" t="s">
+        <v>301</v>
+      </c>
+      <c r="F101" t="s">
+        <v>301</v>
+      </c>
+      <c r="G101" t="s">
+        <v>301</v>
+      </c>
+      <c r="H101" t="s">
+        <v>301</v>
+      </c>
+      <c r="I101" t="s">
+        <v>301</v>
+      </c>
+      <c r="J101" t="s">
+        <v>301</v>
+      </c>
+      <c r="K101" t="s">
+        <v>301</v>
+      </c>
+      <c r="L101" t="s">
+        <v>301</v>
+      </c>
+      <c r="M101">
+        <v>5</v>
+      </c>
+      <c r="N101">
+        <v>5</v>
+      </c>
+      <c r="O101">
+        <v>5</v>
+      </c>
+      <c r="P101">
+        <v>5</v>
+      </c>
+      <c r="Q101">
+        <v>5</v>
+      </c>
+      <c r="R101">
+        <v>5</v>
+      </c>
+      <c r="S101">
+        <v>5</v>
+      </c>
+      <c r="T101">
+        <v>5</v>
+      </c>
+      <c r="U101">
+        <v>5</v>
+      </c>
+      <c r="V101">
+        <v>1</v>
+      </c>
+      <c r="W101">
+        <v>1</v>
+      </c>
+      <c r="X101">
+        <v>1</v>
+      </c>
+      <c r="Y101">
+        <v>1.4916681462400619E-154</v>
+      </c>
+      <c r="Z101">
+        <v>1</v>
+      </c>
+      <c r="AA101">
+        <v>0.9375</v>
+      </c>
+      <c r="AB101">
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="AC101">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AD99" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B100">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B100:C100">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C100">
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B101">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B101:C101">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C101">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/marco-qametric-testdata.xlsx
+++ b/marco-qametric-testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\doktora\mythesis\qametrichub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D6D306-556C-4829-8851-B17316384373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0353CE-0CE1-4B9F-B05E-519A6F52CEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="21585" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1071,30 +1071,6 @@
     <t>emotional</t>
   </si>
   <si>
-    <t>meaning_nor</t>
-  </si>
-  <si>
-    <t>common_theme_nor</t>
-  </si>
-  <si>
-    <t>persuasion_nor</t>
-  </si>
-  <si>
-    <t>believability_nor</t>
-  </si>
-  <si>
-    <t>informative_nor</t>
-  </si>
-  <si>
-    <t>objective_nor</t>
-  </si>
-  <si>
-    <t>expression_nor</t>
-  </si>
-  <si>
-    <t>emotional_nor</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
@@ -1120,6 +1096,30 @@
   </si>
   <si>
     <t>Problems that can be solved in theory (e.g., given large but finite time), but which in practice take too long for their solutions to be useful, are known as intractable problems. In complexity theory, problems that lack polynomial-time solutions are considered to be intractable for more than the smallest inputs. In fact, the Cobham–Edmonds thesis states that only those problems that can be solved in polynomial time can be feasibly computed on some computational device. Problems that are known to be intractable in this sense include those that are EXPTIME-hard. If NP is not the same as P, then the NP-complete problems are also intractable in this sense. To see why exponential-time algorithms might be unusable in practice, consider a program that makes 2n operations before halting. For small n, say 100, and assuming for the sake of example that the computer does 1012 operations each second, the program would run for about 4 × 1010 years, which is the same order of magnitude as the age of the universe. Even with a much faster computer, the program would only be useful for very small instances and in that sense the intractability of a problem is somewhat independent of technological progress. Nevertheless, a polynomial time algorithm is not always practical. If its running time is, say, n15, it is unreasonable to consider it efficient and it is still useless except on small instances.</t>
+  </si>
+  <si>
+    <t>meaning_mean</t>
+  </si>
+  <si>
+    <t>common_theme_mean</t>
+  </si>
+  <si>
+    <t>persuasion_mean</t>
+  </si>
+  <si>
+    <t>believability_mean</t>
+  </si>
+  <si>
+    <t>informative_mean</t>
+  </si>
+  <si>
+    <t>objective_mean</t>
+  </si>
+  <si>
+    <t>expression_mean</t>
+  </si>
+  <si>
+    <t>emotional_mean</t>
   </si>
 </sst>
 </file>
@@ -1551,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="J91" sqref="J91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1595,31 +1595,31 @@
         <v>347</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>258</v>
@@ -1628,7 +1628,7 @@
         <v>259</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>4</v>
@@ -10667,16 +10667,16 @@
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B100" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C100" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D100" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="E100" t="s">
         <v>301</v>
@@ -10756,16 +10756,16 @@
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B101" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C101" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D101" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E101" t="s">
         <v>301</v>
@@ -10849,17 +10849,17 @@
   <conditionalFormatting sqref="B100">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B101">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B100:C100">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B101:C101">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B101:C101">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
